--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21405" windowHeight="9225" activeTab="3"/>
+    <workbookView windowWidth="15255" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>更新时间</t>
   </si>
@@ -246,6 +246,9 @@
     <t>实名验证不通过需要在哪里重新上传</t>
   </si>
   <si>
+    <t>角色Id</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -276,6 +279,9 @@
     <t>返回1登录成功，2账号密码或企业码不对，3该账号未激活，4没有该账号信息,5融云token获取失败</t>
   </si>
   <si>
+    <t>客户</t>
+  </si>
+  <si>
     <t>userPassword</t>
   </si>
   <si>
@@ -288,6 +294,9 @@
     <t>下次请求的令牌</t>
   </si>
   <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
     <t>myTeamId</t>
   </si>
   <si>
@@ -297,6 +306,9 @@
     <t>result(json对象)</t>
   </si>
   <si>
+    <t>商家</t>
+  </si>
+  <si>
     <t>deviceToken</t>
   </si>
   <si>
@@ -334,6 +346,9 @@
   </si>
   <si>
     <t>融云token</t>
+  </si>
+  <si>
+    <t>roleId</t>
   </si>
   <si>
     <t>registerGetVerify.action</t>
@@ -467,10 +482,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -526,55 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +563,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,8 +616,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +674,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -677,25 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +734,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,19 +818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,43 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +860,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -855,6 +894,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,30 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -923,30 +947,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,40 +970,40 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,95 +1012,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,31 +1125,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="36" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="20" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="29" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="29" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="44" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="44" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="20">
@@ -1511,25 +1535,25 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="20" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
+      <c r="A2" s="21">
         <v>42944</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1546,7 +1570,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="21">
         <v>42945</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1563,7 +1587,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1602,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="18"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1617,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1632,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1647,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1662,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1675,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18">
+      <c r="A27" s="21">
         <v>42947</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1663,12 +1687,12 @@
       <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1707,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1722,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1737,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1752,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18">
+      <c r="A42" s="21">
         <v>42948</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1745,7 +1769,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1784,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1799,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="6" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +1814,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="6" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1829,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="6" t="s">
         <v>11</v>
       </c>
@@ -1820,7 +1844,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="6" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1859,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="6" t="s">
         <v>11</v>
       </c>
@@ -1850,7 +1874,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="6" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1889,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="18"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="6" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +1904,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="18"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="6" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1919,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1932,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="18">
+      <c r="A61" s="21">
         <v>42951</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -1923,7 +1947,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="18">
+      <c r="A69" s="21">
         <v>42952</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -1940,7 +1964,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="18"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="6" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1979,7 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="18"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="6" t="s">
         <v>20</v>
       </c>
@@ -1963,12 +1987,12 @@
         <v>43</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="18"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="6" t="s">
         <v>20</v>
       </c>
@@ -1976,12 +2000,12 @@
         <v>28</v>
       </c>
       <c r="D72" s="6"/>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="18"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="6" t="s">
         <v>44</v>
       </c>
@@ -1994,7 +2018,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="18"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="6" t="s">
         <v>39</v>
       </c>
@@ -2009,7 +2033,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="18"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="6" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2048,7 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="18"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="6" t="s">
         <v>39</v>
       </c>
@@ -2039,7 +2063,7 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="18"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="6" t="s">
         <v>39</v>
       </c>
@@ -2054,7 +2078,7 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="18"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="6" t="s">
         <v>39</v>
       </c>
@@ -2069,7 +2093,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="18">
+      <c r="A83" s="21">
         <v>42957</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -2086,7 +2110,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="18"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="6" t="s">
         <v>39</v>
       </c>
@@ -2101,7 +2125,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="18">
+      <c r="A92" s="21">
         <v>42961</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -2118,7 +2142,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="18"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="6" t="s">
         <v>39</v>
       </c>
@@ -2133,59 +2157,59 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="18">
+      <c r="A99" s="21">
         <v>42962</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="9"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="18"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="9"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="18">
+      <c r="A105" s="21">
         <v>42968</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="9"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="18">
+      <c r="A116" s="21">
         <v>42980</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -2224,44 +2248,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -2284,44 +2308,44 @@
       <c r="G8" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2355,20 +2379,20 @@
     <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="16" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2382,7 +2406,7 @@
       <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2399,7 +2423,7 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2416,7 +2440,7 @@
       <c r="C4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2432,10 +2456,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82:O82"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2443,7 +2467,7 @@
     <col min="15" max="15" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2461,8 +2485,13 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2478,23 +2507,26 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2505,110 +2537,137 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" ht="45" customHeight="1" spans="1:15">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:18">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2620,16 +2679,19 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2641,16 +2703,19 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2662,16 +2727,19 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2682,17 +2750,20 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="K11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2704,16 +2775,19 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2725,17 +2799,44 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="17" spans="15:15">
-      <c r="O17" s="10"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="7"/>
@@ -2786,7 +2887,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="14"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2829,20 +2930,20 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2856,29 +2957,29 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2890,11 +2991,11 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2942,20 +3043,20 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2969,29 +3070,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -3003,16 +3104,16 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -3026,20 +3127,20 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -3056,11 +3157,11 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -3077,11 +3178,11 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -3098,18 +3199,18 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3145,20 +3246,20 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3172,29 +3273,29 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -3206,16 +3307,16 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -3234,11 +3335,11 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -3255,11 +3356,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -3276,11 +3377,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -3297,11 +3398,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -3317,15 +3418,15 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
+      <c r="K81" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="5"/>
@@ -3339,11 +3440,11 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -3360,11 +3461,11 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -3381,18 +3482,18 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3428,20 +3529,20 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -3455,29 +3556,29 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -3489,20 +3590,20 @@
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
@@ -3514,20 +3615,20 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -3539,11 +3640,11 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -3608,7 +3709,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3644,20 +3745,20 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -3671,29 +3772,29 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -3705,20 +3806,20 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
@@ -3730,20 +3831,20 @@
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -3755,11 +3856,11 @@
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -3839,7 +3940,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3875,20 +3976,20 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -3902,29 +4003,29 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L160" s="6"/>
       <c r="M160" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -3936,20 +4037,20 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L161" s="6"/>
       <c r="M161" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
@@ -3961,20 +4062,20 @@
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L162" s="3"/>
       <c r="M162" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
@@ -3986,11 +4087,11 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -4069,7 +4170,7 @@
       <c r="O167" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="219">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4079,34 +4180,47 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -4275,6 +4389,7 @@
     <mergeCell ref="A72:O73"/>
     <mergeCell ref="A135:O136"/>
     <mergeCell ref="A157:O158"/>
+    <mergeCell ref="P1:R3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4334,20 +4449,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -4361,27 +4476,27 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4393,11 +4508,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4414,11 +4529,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4435,11 +4550,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -4632,20 +4747,20 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -4659,29 +4774,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4693,11 +4808,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4745,20 +4860,20 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -4772,29 +4887,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -4806,16 +4921,16 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -4829,20 +4944,20 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -4859,11 +4974,11 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -4906,20 +5021,20 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4933,29 +5048,29 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -4967,11 +5082,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -4988,11 +5103,11 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -5009,11 +5124,11 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="8265" activeTab="3"/>
+    <workbookView windowWidth="23715" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>registerGetVerify.action</t>
   </si>
   <si>
-    <t>1表示发送成功，2表示发送失败，3表示该账号未建档，4表示该账号已激活</t>
+    <t>1表示发送成功，2表示发送失败，3表示该账号未建账，4表示该账号已激活</t>
   </si>
   <si>
     <t>registerVerify.action</t>
@@ -482,8 +482,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -541,8 +541,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,31 +610,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -616,32 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +704,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,31 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,31 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,30 +860,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -894,15 +870,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +900,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,156 +938,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2458,13 +2458,13 @@
   <sheetPr/>
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="15" width="43.625" customWidth="1"/>
+    <col min="15" max="15" width="59.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>更新时间</t>
   </si>
@@ -330,6 +330,12 @@
     <t>用户手机</t>
   </si>
   <si>
+    <t>myTeamName</t>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
     <t>userArea</t>
   </si>
   <si>
@@ -433,9 +439,6 @@
   </si>
   <si>
     <t>company</t>
-  </si>
-  <si>
-    <t>企业名称</t>
   </si>
   <si>
     <t>返回1表示录入成功</t>
@@ -483,9 +486,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -525,25 +528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,17 +543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,16 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,8 +573,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,15 +612,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +629,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,19 +785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,43 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,37 +877,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,8 +919,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,151 +955,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2456,10 +2459,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2750,15 +2753,15 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="15"/>
@@ -2774,15 +2777,15 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="15"/>
@@ -2826,34 +2829,41 @@
         <v>109</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="11" t="s">
-        <v>75</v>
+      <c r="M14" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="15"/>
     </row>
-    <row r="17" spans="15:15">
-      <c r="O17" s="13"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="13"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="7"/>
@@ -2863,6 +2873,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2887,32 +2902,27 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="J23" s="14"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="J24" s="14"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2929,103 +2939,103 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
+    <row r="35" spans="1:15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3042,106 +3052,98 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2" t="s">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="6"/>
+      <c r="A54" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F54" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
+      <c r="M54" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
@@ -3151,17 +3153,21 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="F56" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -3178,11 +3184,11 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -3199,36 +3205,40 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+    <row r="59" spans="1:15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3245,102 +3255,98 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2" t="s">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="6"/>
+      <c r="A76" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F76" s="6" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
+      <c r="M76" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L77" s="6"/>
-      <c r="M77" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
@@ -3356,11 +3362,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -3377,11 +3383,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -3398,11 +3404,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -3418,15 +3424,15 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
+      <c r="K81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="5"/>
@@ -3439,15 +3445,15 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
+      <c r="K82" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="5"/>
@@ -3461,11 +3467,11 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -3482,36 +3488,40 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="1" t="s">
+    <row r="85" spans="1:15">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3528,110 +3538,102 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L109" s="6"/>
-      <c r="M109" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="6"/>
+      <c r="A110" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F110" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L110" s="6"/>
-      <c r="M110" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
+      <c r="M110" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="K111" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="5"/>
@@ -3640,33 +3642,46 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="K112" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3677,16 +3692,16 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -3707,27 +3722,22 @@
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
     </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
+    <row r="117" spans="1:15">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3744,110 +3754,102 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2" t="s">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2" t="s">
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L138" s="6"/>
-      <c r="M138" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F139" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L139" s="6"/>
-      <c r="M139" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
+      <c r="M139" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
       <c r="F140" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
+      <c r="K140" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="5"/>
@@ -3856,36 +3858,44 @@
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="6" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
+      <c r="K141" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="7"/>
@@ -3938,27 +3948,27 @@
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
     </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+    <row r="146" spans="1:15">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3975,110 +3985,102 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2" t="s">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2" t="s">
+      <c r="G160" s="2"/>
+      <c r="H160" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2" t="s">
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L160" s="6"/>
-      <c r="M160" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N160" s="3"/>
-      <c r="O160" s="3"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="6"/>
+      <c r="A161" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
+      <c r="E161" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F161" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L161" s="6"/>
-      <c r="M161" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
+      <c r="M161" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N162" s="3"/>
-      <c r="O162" s="3"/>
+      <c r="K162" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="5"/>
@@ -4087,36 +4089,44 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="6" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
+      <c r="K163" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="7"/>
@@ -4169,8 +4179,25 @@
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
     </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="219">
+  <mergeCells count="221">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4211,7 +4238,6 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="P12:Q12"/>
@@ -4221,66 +4247,67 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:O21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:O34"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:O35"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="K53:O53"/>
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K55:O55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M56:O56"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:O57"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:O58"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="K77:O77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="K79:L79"/>
@@ -4295,15 +4322,13 @@
     <mergeCell ref="M83:O83"/>
     <mergeCell ref="K84:L84"/>
     <mergeCell ref="M84:O84"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:O108"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
@@ -4318,21 +4343,21 @@
     <mergeCell ref="M112:O112"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="K137:O137"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:O117"/>
     <mergeCell ref="A138:D138"/>
     <mergeCell ref="F138:G138"/>
     <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="K138:O138"/>
+    <mergeCell ref="A139:D139"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="H139:J139"/>
     <mergeCell ref="K139:L139"/>
@@ -4345,6 +4370,8 @@
     <mergeCell ref="H141:J141"/>
     <mergeCell ref="K141:L141"/>
     <mergeCell ref="M141:O141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
     <mergeCell ref="K142:L142"/>
     <mergeCell ref="M142:O142"/>
     <mergeCell ref="K143:L143"/>
@@ -4353,15 +4380,13 @@
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="K145:L145"/>
     <mergeCell ref="M145:O145"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="K159:O159"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="M146:O146"/>
     <mergeCell ref="A160:D160"/>
     <mergeCell ref="F160:G160"/>
     <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="K160:O160"/>
+    <mergeCell ref="A161:D161"/>
     <mergeCell ref="F161:G161"/>
     <mergeCell ref="H161:J161"/>
     <mergeCell ref="K161:L161"/>
@@ -4374,6 +4399,8 @@
     <mergeCell ref="H163:J163"/>
     <mergeCell ref="K163:L163"/>
     <mergeCell ref="M163:O163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:J164"/>
     <mergeCell ref="K164:L164"/>
     <mergeCell ref="M164:O164"/>
     <mergeCell ref="K165:L165"/>
@@ -4382,14 +4409,16 @@
     <mergeCell ref="M166:O166"/>
     <mergeCell ref="K167:L167"/>
     <mergeCell ref="M167:O167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:O168"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A106:O107"/>
-    <mergeCell ref="A30:O31"/>
-    <mergeCell ref="A50:O51"/>
-    <mergeCell ref="A72:O73"/>
-    <mergeCell ref="A135:O136"/>
-    <mergeCell ref="A157:O158"/>
     <mergeCell ref="P1:R3"/>
+    <mergeCell ref="A107:O108"/>
+    <mergeCell ref="A31:O32"/>
+    <mergeCell ref="A51:O52"/>
+    <mergeCell ref="A73:O74"/>
+    <mergeCell ref="A136:O137"/>
+    <mergeCell ref="A158:O159"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4476,18 +4505,18 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -4496,7 +4525,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4508,11 +4537,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4529,11 +4558,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4550,11 +4579,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -4774,7 +4803,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4796,7 +4825,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4887,7 +4916,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4909,7 +4938,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -4944,20 +4973,20 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -4978,7 +5007,7 @@
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -5048,7 +5077,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5057,11 +5086,11 @@
         <v>81</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5070,7 +5099,7 @@
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -5107,7 +5136,7 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -5128,7 +5157,7 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="22395" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -485,10 +485,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -530,7 +530,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,39 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,32 +573,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,10 +597,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -707,7 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +725,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,103 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +857,71 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -880,73 +945,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,16 +955,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +973,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2461,8 +2461,8 @@
   <sheetPr/>
   <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:O11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="9360" activeTab="3"/>
+    <workbookView windowWidth="23025" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -528,9 +528,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,24 +550,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,22 +584,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -607,6 +592,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,17 +637,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,14 +647,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,31 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +767,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,13 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,37 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,30 +858,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,11 +894,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,8 +919,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,142 +955,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,7 +1099,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2461,13 +2461,13 @@
   <sheetPr/>
   <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="15" width="59.875" customWidth="1"/>
+    <col min="15" max="15" width="72.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -2544,7 +2544,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" ht="45" customHeight="1" spans="1:18">
+    <row r="4" ht="15" customHeight="1" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360" activeTab="3"/>
+    <workbookView windowWidth="26385" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>更新时间</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>cardHand</t>
+  </si>
+  <si>
+    <t>用户登录(浏览器)</t>
+  </si>
+  <si>
+    <t>login_on_browser.action</t>
   </si>
   <si>
     <t>registerExperience.action</t>
@@ -485,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -528,20 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -551,15 +543,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -574,55 +597,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,14 +620,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +719,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -725,7 +737,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,25 +809,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,67 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,6 +869,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -873,6 +894,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,39 +929,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,11 +950,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,16 +961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,103 +979,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,19 +1084,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,15 +2465,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R168"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="N193" sqref="N193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="15" max="15" width="72.875" customWidth="1"/>
+    <col min="15" max="15" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4196,8 +4202,348 @@
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
     </row>
+    <row r="175" spans="1:18">
+      <c r="A175" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q175" s="8"/>
+      <c r="R175" s="8"/>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="8"/>
+      <c r="Q176" s="8"/>
+      <c r="R176" s="8"/>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="8"/>
+      <c r="Q177" s="8"/>
+      <c r="R177" s="8"/>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L178" s="6"/>
+      <c r="M178" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q178" s="10"/>
+      <c r="R178" s="15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="15">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="10"/>
+      <c r="Q181" s="10"/>
+      <c r="R181" s="15"/>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+      <c r="R182" s="15"/>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="15"/>
+    </row>
+    <row r="184" spans="1:18">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="15"/>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="10"/>
+      <c r="R185" s="15"/>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="10"/>
+      <c r="Q186" s="10"/>
+      <c r="R186" s="15"/>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L187" s="6"/>
+      <c r="M187" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N187" s="6"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10"/>
+      <c r="R187" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="269">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4411,6 +4757,52 @@
     <mergeCell ref="M167:O167"/>
     <mergeCell ref="K168:L168"/>
     <mergeCell ref="M168:O168"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="K177:O177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="P178:Q178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="K179:O179"/>
+    <mergeCell ref="P179:Q179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="P180:Q180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="H181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="P181:Q181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="P182:Q182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="P183:Q183"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:O184"/>
+    <mergeCell ref="P184:Q184"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="P186:Q186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="P187:Q187"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R3"/>
     <mergeCell ref="A107:O108"/>
@@ -4419,6 +4811,8 @@
     <mergeCell ref="A73:O74"/>
     <mergeCell ref="A136:O137"/>
     <mergeCell ref="A158:O159"/>
+    <mergeCell ref="A175:O176"/>
+    <mergeCell ref="P175:R177"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4431,8 +4825,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4505,14 +4899,14 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -4525,7 +4919,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4537,11 +4931,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4558,11 +4952,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4579,11 +4973,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -4729,8 +5123,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:O49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4803,7 +5197,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4825,7 +5219,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4916,7 +5310,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4938,7 +5332,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -5077,7 +5471,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5099,7 +5493,7 @@
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="9045" activeTab="3"/>
+    <workbookView windowWidth="18855" windowHeight="9705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>参数说明</t>
   </si>
   <si>
-    <t>login.action</t>
+    <t>/login.action</t>
   </si>
   <si>
     <t>POST</t>
@@ -357,13 +357,13 @@
     <t>roleId</t>
   </si>
   <si>
-    <t>registerGetVerify.action</t>
+    <t>/registerGetVerify.action</t>
   </si>
   <si>
     <t>1表示发送成功，2表示发送失败，3表示该账号未建账，4表示该账号已激活</t>
   </si>
   <si>
-    <t>registerVerify.action</t>
+    <t>/registerVerify.action</t>
   </si>
   <si>
     <t>等于1表示验证成功并返回以下数据</t>
@@ -378,7 +378,7 @@
     <t>发起激活</t>
   </si>
   <si>
-    <t>register.action</t>
+    <t>/register.action</t>
   </si>
   <si>
     <t>等于1激活成功并返回以下数据</t>
@@ -396,7 +396,7 @@
     <t>上传身份证正面照</t>
   </si>
   <si>
-    <t>insertCardFront.action</t>
+    <t>/insertCardFront.action</t>
   </si>
   <si>
     <t>上传结果，1为成功，2为失败</t>
@@ -420,7 +420,7 @@
     <t>上传身份证背面照</t>
   </si>
   <si>
-    <t>insertCardBack.action</t>
+    <t>/insertCardBack.action</t>
   </si>
   <si>
     <t>cardBack</t>
@@ -429,7 +429,7 @@
     <t>上传手持身份证照</t>
   </si>
   <si>
-    <t>insertCardHand.action</t>
+    <t>/insertCardHand.action</t>
   </si>
   <si>
     <t>cardHand</t>
@@ -438,10 +438,10 @@
     <t>用户登录(浏览器)</t>
   </si>
   <si>
-    <t>login_on_browser.action</t>
-  </si>
-  <si>
-    <t>registerExperience.action</t>
+    <t>/login_on_browser.action</t>
+  </si>
+  <si>
+    <t>/registerExperience.action</t>
   </si>
   <si>
     <t>company</t>
@@ -468,19 +468,19 @@
     <t>职位</t>
   </si>
   <si>
-    <t>retrieveGetPasswordVerify.action</t>
+    <t>/retrieveGetPasswordVerify.action</t>
   </si>
   <si>
     <t>1表示发送成功，2表示发送失败，3找不到该用户，4表示用户未注册</t>
   </si>
   <si>
-    <t>retrievePasswordVerify.action</t>
+    <t>/retrievePasswordVerify.action</t>
   </si>
   <si>
     <t>等于1表示验证成功并返回以下数据，2表示验证失败，3找不到该用户</t>
   </si>
   <si>
-    <t>updatePassword.action</t>
+    <t>/updatePassword.action</t>
   </si>
   <si>
     <t>1代表修改成功，2表示修改失败</t>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,9 +534,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,24 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,10 +572,41 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,42 +626,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -650,7 +650,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,19 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,49 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +773,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,31 +833,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,17 +868,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,26 +903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -929,6 +914,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,30 +956,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,133 +979,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2467,8 +2467,8 @@
   <sheetPr/>
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="N193" sqref="N193"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="N173" sqref="N173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4826,7 +4826,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5123,8 +5123,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="9705" activeTab="3"/>
+    <workbookView windowWidth="22290" windowHeight="9135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -535,6 +535,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -542,7 +549,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +579,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,54 +609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +627,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,7 +642,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +725,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,25 +767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,25 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,25 +815,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,26 +868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -899,6 +879,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +907,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,45 +956,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,115 +997,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2467,8 +2467,8 @@
   <sheetPr/>
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="N173" sqref="N173"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4826,7 +4826,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5123,8 +5123,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -491,10 +491,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,8 +534,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,46 +565,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,7 +582,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -617,19 +597,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,7 +620,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +791,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,73 +833,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +869,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -885,9 +900,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,35 +950,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,16 +961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,133 +979,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2467,8 +2467,8 @@
   <sheetPr/>
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82:O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135" activeTab="3"/>
+    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>更新时间</t>
   </si>
@@ -441,6 +441,15 @@
     <t>/login_on_browser.action</t>
   </si>
   <si>
+    <t>用户登出(浏览器)</t>
+  </si>
+  <si>
+    <t>/logoutOnBrowser.action</t>
+  </si>
+  <si>
+    <t>返回1成功，2失败</t>
+  </si>
+  <si>
     <t>/registerExperience.action</t>
   </si>
   <si>
@@ -484,6 +493,15 @@
   </si>
   <si>
     <t>1代表修改成功，2表示修改失败</t>
+  </si>
+  <si>
+    <t>验证密码</t>
+  </si>
+  <si>
+    <t>/verifyPassword.action</t>
+  </si>
+  <si>
+    <t>1代表验证成功，2表示验证失败</t>
   </si>
 </sst>
 </file>
@@ -491,10 +509,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -542,11 +560,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,8 +606,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,52 +638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,23 +652,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +731,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,31 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,67 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,13 +809,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,56 +882,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,8 +919,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,145 +985,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2465,10 +2483,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82:O82"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198:O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4542,8 +4560,142 @@
       <c r="Q187" s="10"/>
       <c r="R187" s="15"/>
     </row>
+    <row r="198" spans="1:15">
+      <c r="A198" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L201" s="6"/>
+      <c r="M201" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N201" s="9"/>
+      <c r="O201" s="9"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="269">
+  <mergeCells count="286">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4803,6 +4955,22 @@
     <mergeCell ref="K187:L187"/>
     <mergeCell ref="M187:O187"/>
     <mergeCell ref="P187:Q187"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="K200:O200"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:O201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="K202:O202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:O203"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R3"/>
     <mergeCell ref="A107:O108"/>
@@ -4813,6 +4981,7 @@
     <mergeCell ref="A158:O159"/>
     <mergeCell ref="A175:O176"/>
     <mergeCell ref="P175:R177"/>
+    <mergeCell ref="A198:O199"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4899,14 +5068,14 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -4919,7 +5088,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4931,11 +5100,11 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4952,11 +5121,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -4973,11 +5142,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -5121,10 +5290,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5197,7 +5366,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5219,7 +5388,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -5310,7 +5479,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5332,7 +5501,7 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -5471,7 +5640,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5493,7 +5662,7 @@
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -5561,8 +5730,163 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="73">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5613,9 +5937,29 @@
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:J73"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A25:O26"/>
     <mergeCell ref="A48:O49"/>
+    <mergeCell ref="A67:O68"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -510,9 +510,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -552,9 +552,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,22 +599,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -592,7 +614,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,9 +636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,13 +653,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,36 +669,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +731,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,13 +773,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,109 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -897,6 +921,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,30 +947,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,32 +974,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,130 +1000,130 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198:O199"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K168" sqref="K168:L168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3543,40 +3543,40 @@
       <c r="O85" s="6"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
@@ -3759,40 +3759,40 @@
       <c r="O117" s="7"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
@@ -3990,40 +3990,40 @@
       <c r="O146" s="7"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="21930" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -552,14 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -576,8 +568,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,16 +636,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,47 +659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +755,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,25 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,25 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,55 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -897,6 +912,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,17 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -959,36 +974,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +997,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,124 +1006,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K168" sqref="K168:L168"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178:G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4995,7 +4995,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="A1" sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5292,8 +5292,8 @@
   <sheetPr/>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69:O69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="9600" activeTab="3"/>
+    <workbookView windowWidth="23910" windowHeight="9450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -510,9 +510,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -560,11 +560,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,8 +598,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,30 +653,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,39 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,13 +743,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,55 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,43 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +886,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,11 +933,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,41 +964,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,151 +979,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178:G180"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76:O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4994,8 +4994,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5292,8 +5292,8 @@
   <sheetPr/>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23910" windowHeight="9450" activeTab="4"/>
+    <workbookView windowWidth="21930" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="7" r:id="rId1"/>
@@ -552,67 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -630,9 +569,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,7 +652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,21 +660,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,7 +731,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +761,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,13 +791,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,43 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,49 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,17 +916,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,8 +928,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,11 +949,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,151 +979,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76:O85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4994,7 +4994,7 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
+++ b/需求分析/接口文档/客户/需求接口 v1.0.0.xlsx
@@ -509,8 +509,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -552,19 +552,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,8 +583,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,38 +630,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,39 +668,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,25 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +749,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,13 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,18 +864,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -897,6 +912,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,39 +947,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,11 +968,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,16 +979,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,16 +997,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,115 +1015,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,8 +2485,8 @@
   <sheetPr/>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
